--- a/natmiOut/OldD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tfrc</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>19.3315703277442</v>
+        <v>0.4549493333333334</v>
       </c>
       <c r="H2">
-        <v>19.3315703277442</v>
+        <v>1.364848</v>
       </c>
       <c r="I2">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="J2">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.41281652866661</v>
+        <v>11.68484733333333</v>
       </c>
       <c r="N2">
-        <v>9.41281652866661</v>
+        <v>35.054542</v>
       </c>
       <c r="O2">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="P2">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="Q2">
-        <v>181.9645247060716</v>
+        <v>5.316013504401778</v>
       </c>
       <c r="R2">
-        <v>181.9645247060716</v>
+        <v>47.844121539616</v>
       </c>
       <c r="S2">
-        <v>0.04710997706473926</v>
+        <v>0.001077296240873128</v>
       </c>
       <c r="T2">
-        <v>0.04710997706473926</v>
+        <v>0.001077296240873128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>19.3315703277442</v>
+        <v>0.4549493333333334</v>
       </c>
       <c r="H3">
-        <v>19.3315703277442</v>
+        <v>1.364848</v>
       </c>
       <c r="I3">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="J3">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.68656124548309</v>
+        <v>4.833228666666667</v>
       </c>
       <c r="N3">
-        <v>4.68656124548309</v>
+        <v>14.499686</v>
       </c>
       <c r="O3">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="P3">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="Q3">
-        <v>90.5985883123368</v>
+        <v>2.198874159747556</v>
       </c>
       <c r="R3">
-        <v>90.5985883123368</v>
+        <v>19.789867437728</v>
       </c>
       <c r="S3">
-        <v>0.02345565666926685</v>
+        <v>0.0004456043733688127</v>
       </c>
       <c r="T3">
-        <v>0.02345565666926685</v>
+        <v>0.0004456043733688126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>19.3315703277442</v>
+        <v>0.4549493333333334</v>
       </c>
       <c r="H4">
-        <v>19.3315703277442</v>
+        <v>1.364848</v>
       </c>
       <c r="I4">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="J4">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.1531803668674</v>
+        <v>14.330788</v>
       </c>
       <c r="N4">
-        <v>12.1531803668674</v>
+        <v>42.99236399999999</v>
       </c>
       <c r="O4">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="P4">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="Q4">
-        <v>234.9400609678572</v>
+        <v>6.519782446741333</v>
       </c>
       <c r="R4">
-        <v>234.9400609678572</v>
+        <v>58.678042020672</v>
       </c>
       <c r="S4">
-        <v>0.06082515755014576</v>
+        <v>0.001321241399287123</v>
       </c>
       <c r="T4">
-        <v>0.06082515755014576</v>
+        <v>0.001321241399287122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>19.3315703277442</v>
+        <v>0.4549493333333334</v>
       </c>
       <c r="H5">
-        <v>19.3315703277442</v>
+        <v>1.364848</v>
       </c>
       <c r="I5">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="J5">
-        <v>0.1769656116201155</v>
+        <v>0.004035600264670243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.106084292077851</v>
+        <v>12.92310066666666</v>
       </c>
       <c r="N5">
-        <v>9.106084292077851</v>
+        <v>38.769302</v>
       </c>
       <c r="O5">
-        <v>0.2575348957276354</v>
+        <v>0.2952369345328449</v>
       </c>
       <c r="P5">
-        <v>0.2575348957276354</v>
+        <v>0.2952369345328449</v>
       </c>
       <c r="Q5">
-        <v>176.0349089026697</v>
+        <v>5.879356032899556</v>
       </c>
       <c r="R5">
-        <v>176.0349089026697</v>
+        <v>52.914204296096</v>
       </c>
       <c r="S5">
-        <v>0.04557482033596368</v>
+        <v>0.00119145825114118</v>
       </c>
       <c r="T5">
-        <v>0.04557482033596368</v>
+        <v>0.00119145825114118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>88.95289474108689</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H6">
-        <v>88.95289474108689</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I6">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="J6">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.41281652866661</v>
+        <v>11.68484733333333</v>
       </c>
       <c r="N6">
-        <v>9.41281652866661</v>
+        <v>35.054542</v>
       </c>
       <c r="O6">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="P6">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="Q6">
-        <v>837.2972778916439</v>
+        <v>229.0909979650169</v>
       </c>
       <c r="R6">
-        <v>837.2972778916439</v>
+        <v>2061.818981685152</v>
       </c>
       <c r="S6">
-        <v>0.216773327776718</v>
+        <v>0.04642555379538279</v>
       </c>
       <c r="T6">
-        <v>0.216773327776718</v>
+        <v>0.04642555379538279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>88.95289474108689</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H7">
-        <v>88.95289474108689</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I7">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="J7">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.68656124548309</v>
+        <v>4.833228666666667</v>
       </c>
       <c r="N7">
-        <v>4.68656124548309</v>
+        <v>14.499686</v>
       </c>
       <c r="O7">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="P7">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="Q7">
-        <v>416.8831891671144</v>
+        <v>94.75940481320178</v>
       </c>
       <c r="R7">
-        <v>416.8831891671144</v>
+        <v>852.8346433188161</v>
       </c>
       <c r="S7">
-        <v>0.1079295951343356</v>
+        <v>0.01920310219455039</v>
       </c>
       <c r="T7">
-        <v>0.1079295951343356</v>
+        <v>0.01920310219455039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>88.95289474108689</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H8">
-        <v>88.95289474108689</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I8">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="J8">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.1531803668674</v>
+        <v>14.330788</v>
       </c>
       <c r="N8">
-        <v>12.1531803668674</v>
+        <v>42.99236399999999</v>
       </c>
       <c r="O8">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="P8">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="Q8">
-        <v>1081.0605739434</v>
+        <v>280.9668308784426</v>
       </c>
       <c r="R8">
-        <v>1081.0605739434</v>
+        <v>2528.701477905984</v>
       </c>
       <c r="S8">
-        <v>0.2798827899357467</v>
+        <v>0.05693825090262707</v>
       </c>
       <c r="T8">
-        <v>0.2798827899357467</v>
+        <v>0.05693825090262707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>88.95289474108689</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H9">
-        <v>88.95289474108689</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I9">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="J9">
-        <v>0.8142951222459273</v>
+        <v>0.1739122165990868</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.106084292077851</v>
+        <v>12.92310066666666</v>
       </c>
       <c r="N9">
-        <v>9.106084292077851</v>
+        <v>38.769302</v>
       </c>
       <c r="O9">
-        <v>0.2575348957276354</v>
+        <v>0.2952369345328449</v>
       </c>
       <c r="P9">
-        <v>0.2575348957276354</v>
+        <v>0.2952369345328449</v>
       </c>
       <c r="Q9">
-        <v>810.0125575366658</v>
+        <v>253.3679682817458</v>
       </c>
       <c r="R9">
-        <v>810.0125575366658</v>
+        <v>2280.311714535712</v>
       </c>
       <c r="S9">
-        <v>0.209709409399127</v>
+        <v>0.05134530970652652</v>
       </c>
       <c r="T9">
-        <v>0.209709409399127</v>
+        <v>0.05134530970652652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9546698724955121</v>
+        <v>91.29211166666666</v>
       </c>
       <c r="H10">
-        <v>0.9546698724955121</v>
+        <v>273.876335</v>
       </c>
       <c r="I10">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="J10">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.41281652866661</v>
+        <v>11.68484733333333</v>
       </c>
       <c r="N10">
-        <v>9.41281652866661</v>
+        <v>35.054542</v>
       </c>
       <c r="O10">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="P10">
-        <v>0.2662097829824035</v>
+        <v>0.266948203543434</v>
       </c>
       <c r="Q10">
-        <v>8.986132355245802</v>
+        <v>1066.734387562619</v>
       </c>
       <c r="R10">
-        <v>8.986132355245802</v>
+        <v>9600.609488063568</v>
       </c>
       <c r="S10">
-        <v>0.002326478140946204</v>
+        <v>0.2161749485361076</v>
       </c>
       <c r="T10">
-        <v>0.002326478140946204</v>
+        <v>0.2161749485361076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9546698724955121</v>
+        <v>91.29211166666666</v>
       </c>
       <c r="H11">
-        <v>0.9546698724955121</v>
+        <v>273.876335</v>
       </c>
       <c r="I11">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="J11">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.68656124548309</v>
+        <v>4.833228666666667</v>
       </c>
       <c r="N11">
-        <v>4.68656124548309</v>
+        <v>14.499686</v>
       </c>
       <c r="O11">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="P11">
-        <v>0.1325435854713858</v>
+        <v>0.1104183626088705</v>
       </c>
       <c r="Q11">
-        <v>4.47411882666775</v>
+        <v>441.2356511478678</v>
       </c>
       <c r="R11">
-        <v>4.47411882666775</v>
+        <v>3971.12086033081</v>
       </c>
       <c r="S11">
-        <v>0.001158333667783338</v>
+        <v>0.08941691136172086</v>
       </c>
       <c r="T11">
-        <v>0.001158333667783338</v>
+        <v>0.08941691136172086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9546698724955121</v>
+        <v>91.29211166666666</v>
       </c>
       <c r="H12">
-        <v>0.9546698724955121</v>
+        <v>273.876335</v>
       </c>
       <c r="I12">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="J12">
-        <v>0.00873926613395716</v>
+        <v>0.8098010987398714</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.1531803668674</v>
+        <v>14.330788</v>
       </c>
       <c r="N12">
-        <v>12.1531803668674</v>
+        <v>42.99236399999999</v>
       </c>
       <c r="O12">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="P12">
-        <v>0.3437117358185753</v>
+        <v>0.3273964993148507</v>
       </c>
       <c r="Q12">
-        <v>11.60227515125226</v>
+        <v>1308.287898367326</v>
       </c>
       <c r="R12">
-        <v>11.60227515125226</v>
+        <v>11774.59108530594</v>
       </c>
       <c r="S12">
-        <v>0.003003788332682906</v>
+        <v>0.2651260448687536</v>
       </c>
       <c r="T12">
-        <v>0.003003788332682906</v>
+        <v>0.2651260448687536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.29211166666666</v>
+      </c>
+      <c r="H13">
+        <v>273.876335</v>
+      </c>
+      <c r="I13">
+        <v>0.8098010987398714</v>
+      </c>
+      <c r="J13">
+        <v>0.8098010987398714</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.92310066666666</v>
+      </c>
+      <c r="N13">
+        <v>38.769302</v>
+      </c>
+      <c r="O13">
+        <v>0.2952369345328449</v>
+      </c>
+      <c r="P13">
+        <v>0.2952369345328449</v>
+      </c>
+      <c r="Q13">
+        <v>1179.777149140908</v>
+      </c>
+      <c r="R13">
+        <v>10617.99434226817</v>
+      </c>
+      <c r="S13">
+        <v>0.2390831939732893</v>
+      </c>
+      <c r="T13">
+        <v>0.2390831939732893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.381113666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.143340999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="J14">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.68484733333333</v>
+      </c>
+      <c r="N14">
+        <v>35.054542</v>
+      </c>
+      <c r="O14">
+        <v>0.266948203543434</v>
+      </c>
+      <c r="P14">
+        <v>0.266948203543434</v>
+      </c>
+      <c r="Q14">
+        <v>16.13810234498022</v>
+      </c>
+      <c r="R14">
+        <v>145.242921104822</v>
+      </c>
+      <c r="S14">
+        <v>0.00327040497107041</v>
+      </c>
+      <c r="T14">
+        <v>0.003270404971070409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.381113666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.143340999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="J15">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.833228666666667</v>
+      </c>
+      <c r="N15">
+        <v>14.499686</v>
+      </c>
+      <c r="O15">
+        <v>0.1104183626088705</v>
+      </c>
+      <c r="P15">
+        <v>0.1104183626088705</v>
+      </c>
+      <c r="Q15">
+        <v>6.675238165658445</v>
+      </c>
+      <c r="R15">
+        <v>60.077143490926</v>
+      </c>
+      <c r="S15">
+        <v>0.001352744679230441</v>
+      </c>
+      <c r="T15">
+        <v>0.001352744679230441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9546698724955121</v>
-      </c>
-      <c r="H13">
-        <v>0.9546698724955121</v>
-      </c>
-      <c r="I13">
-        <v>0.00873926613395716</v>
-      </c>
-      <c r="J13">
-        <v>0.00873926613395716</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.106084292077851</v>
-      </c>
-      <c r="N13">
-        <v>9.106084292077851</v>
-      </c>
-      <c r="O13">
-        <v>0.2575348957276354</v>
-      </c>
-      <c r="P13">
-        <v>0.2575348957276354</v>
-      </c>
-      <c r="Q13">
-        <v>8.693304330051348</v>
-      </c>
-      <c r="R13">
-        <v>8.693304330051348</v>
-      </c>
-      <c r="S13">
-        <v>0.002250665992544712</v>
-      </c>
-      <c r="T13">
-        <v>0.002250665992544712</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.381113666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.143340999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="J16">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.330788</v>
+      </c>
+      <c r="N16">
+        <v>42.99236399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.3273964993148507</v>
+      </c>
+      <c r="P16">
+        <v>0.3273964993148507</v>
+      </c>
+      <c r="Q16">
+        <v>19.79244716090266</v>
+      </c>
+      <c r="R16">
+        <v>178.132024448124</v>
+      </c>
+      <c r="S16">
+        <v>0.004010962144182872</v>
+      </c>
+      <c r="T16">
+        <v>0.004010962144182871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.381113666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.143340999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="J17">
+        <v>0.01225108439637166</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.92310066666666</v>
+      </c>
+      <c r="N17">
+        <v>38.769302</v>
+      </c>
+      <c r="O17">
+        <v>0.2952369345328449</v>
+      </c>
+      <c r="P17">
+        <v>0.2952369345328449</v>
+      </c>
+      <c r="Q17">
+        <v>17.84827094644244</v>
+      </c>
+      <c r="R17">
+        <v>160.634438517982</v>
+      </c>
+      <c r="S17">
+        <v>0.003616972601887937</v>
+      </c>
+      <c r="T17">
+        <v>0.003616972601887937</v>
       </c>
     </row>
   </sheetData>
